--- a/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
+++ b/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_1C94C748F2D580C91EABB90421DE9C205490576D" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqui\Desktop\ProjetosJS\excel-to-json\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB1C40-CCC7-4982-A6F1-03B8D21E725E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1849,7 +1854,7 @@
     <t>Conquistar vaga em empresa privada, Prestar concurso público, Melhorar cargo e salário na empresa que trabalho, Abrir meu próprio negócio</t>
   </si>
   <si>
-    <t>Estou muito feliz pela oportunidade de fazer um curso superior ☺️</t>
+    <t>Estou muito feliz pela oportunidade de fazer um curso superior.</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1873,6 +1878,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1895,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1904,6 +1915,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2124,17 +2136,17 @@
   </sheetPr>
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BU1" sqref="BU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="79" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44260.867528958333</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>44258.873117951385</v>
       </c>
@@ -2794,7 +2806,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44261.637776979165</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44259.822014247686</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>44258.884685324076</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44258.970108287038</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44258.977294131946</v>
       </c>
@@ -3885,7 +3897,7 @@
       </c>
       <c r="BU8" s="3"/>
     </row>
-    <row r="9" spans="1:73">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>44259.581507407405</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:73">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>44259.815938055559</v>
       </c>
@@ -4321,7 +4333,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>44259.821031666666</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>44259.822573831014</v>
       </c>
@@ -4760,7 +4772,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>44259.839947604167</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>44259.840510405091</v>
       </c>
@@ -5199,7 +5211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44261.516660428242</v>
       </c>
@@ -5417,7 +5429,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>44259.933378668982</v>
       </c>
@@ -5635,7 +5647,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>44259.939436921297</v>
       </c>
@@ -5856,7 +5868,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>44259.939585694447</v>
       </c>
@@ -6077,7 +6089,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44259.959800358796</v>
       </c>
@@ -6298,7 +6310,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>44259.959428321759</v>
       </c>
@@ -6519,7 +6531,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>44260.01869744213</v>
       </c>
@@ -6740,7 +6752,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>44260.032254768521</v>
       </c>
@@ -6961,7 +6973,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>44260.337712141205</v>
       </c>
@@ -7176,7 +7188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>44260.349357013889</v>
       </c>
@@ -7397,7 +7409,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>44260.349480000004</v>
       </c>
@@ -7612,7 +7624,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>44260.350739791669</v>
       </c>
@@ -7833,7 +7845,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44260.35479798611</v>
       </c>
@@ -8051,7 +8063,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>44260.355723287037</v>
       </c>
@@ -8272,7 +8284,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>44260.356582499997</v>
       </c>
@@ -8493,7 +8505,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:73">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>44260.363392708328</v>
       </c>
@@ -8708,7 +8720,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:73">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>44260.370782025464</v>
       </c>
@@ -8929,7 +8941,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:73">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>44260.405225347218</v>
       </c>
@@ -9150,7 +9162,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:73">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>44260.42123068287</v>
       </c>
@@ -9371,7 +9383,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:73">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>44260.436581574075</v>
       </c>
@@ -9589,7 +9601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:73">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>44260.443643032406</v>
       </c>
@@ -9807,7 +9819,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:73">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>44260.460295254627</v>
       </c>
@@ -10025,7 +10037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:73">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>44260.47113849537</v>
       </c>
@@ -10243,7 +10255,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:73">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>44260.531303032403</v>
       </c>
@@ -10464,7 +10476,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="39" spans="1:73">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>44260.648088923612</v>
       </c>
@@ -10685,7 +10697,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:73">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>44260.68363590278</v>
       </c>
@@ -10906,7 +10918,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:73">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>44260.784368020832</v>
       </c>
@@ -11127,7 +11139,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:73">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44260.803985983795</v>
       </c>
@@ -11348,7 +11360,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="1:73">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>44260.813511562505</v>
       </c>
@@ -11569,7 +11581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>44260.818119270829</v>
       </c>
@@ -11790,7 +11802,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44261.406305856479</v>
       </c>
@@ -12011,7 +12023,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44260.88511231482</v>
       </c>
@@ -12232,7 +12244,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:73">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44260.936375185185</v>
       </c>
@@ -12453,7 +12465,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="48" spans="1:73">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44260.945002476852</v>
       </c>
@@ -12674,7 +12686,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="1:73">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>44260.947261817128</v>
       </c>
@@ -12892,7 +12904,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:73">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>44260.976459699072</v>
       </c>
@@ -13113,7 +13125,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>44261.042403888889</v>
       </c>
@@ -13334,7 +13346,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:73">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>44261.047896064818</v>
       </c>
@@ -13555,7 +13567,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="53" spans="1:73">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>44261.327996099542</v>
       </c>
@@ -13776,7 +13788,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:73">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>44261.332426678244</v>
       </c>
@@ -13997,7 +14009,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:73">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>44261.347066666669</v>
       </c>
@@ -14218,7 +14230,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="56" spans="1:73">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>44261.355945277777</v>
       </c>
@@ -14439,7 +14451,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="57" spans="1:73">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>44261.357688726857</v>
       </c>
@@ -14660,7 +14672,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="58" spans="1:73">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>44261.359977152781</v>
       </c>
@@ -14881,7 +14893,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:73">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44261.456565694447</v>
       </c>
@@ -15099,7 +15111,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:73">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>44261.408783854167</v>
       </c>
@@ -15317,7 +15329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:73">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>44261.442637974542</v>
       </c>
@@ -15538,7 +15550,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="62" spans="1:73">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>44261.447496215274</v>
       </c>
@@ -15759,7 +15771,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="63" spans="1:73">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>44261.519795995366</v>
       </c>
@@ -15980,7 +15992,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="64" spans="1:73">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>44261.688039942128</v>
       </c>
@@ -16201,7 +16213,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="65" spans="1:73">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>44261.819814999995</v>
       </c>
@@ -16422,7 +16434,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:73">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>44261.8660852662</v>
       </c>
@@ -16640,7 +16652,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:73">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>44261.959790486115</v>
       </c>
@@ -16857,17 +16869,35 @@
       <c r="BT67" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="BU67" s="3" t="s">
+      <c r="BU67" s="8" t="s">
         <v>566</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100769795F31DF83E42B9EF3191BF58F11E" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d10fa2fa8b93571a81d0acb900d96378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7782f7c-3682-40ab-87b3-699aa360fab5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b18fc6a870800aa28c689315512109b7" ns2:_="">
     <xsd:import namespace="c7782f7c-3682-40ab-87b3-699aa360fab5"/>
@@ -16993,31 +17023,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E57093-D3FE-4FBD-8866-8BBA342F1032}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42055-2B02-4017-B2F7-5D1E3BDC4755}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42055-2B02-4017-B2F7-5D1E3BDC4755}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7782f7c-3682-40ab-87b3-699aa360fab5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E57093-D3FE-4FBD-8866-8BBA342F1032}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c7782f7c-3682-40ab-87b3-699aa360fab5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
+++ b/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqui\Desktop\ProjetosJS\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB1C40-CCC7-4982-A6F1-03B8D21E725E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D90BB-8948-4C48-8AA8-003D45619D40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="120" windowWidth="22140" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="564">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1411,9 +1411,6 @@
     <t>Sozinho</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>Jussara</t>
   </si>
   <si>
@@ -1478,9 +1475,6 @@
   </si>
   <si>
     <t>cicera.vieira@fatec.sp.giv.br</t>
-  </si>
-  <si>
-    <t>09</t>
   </si>
   <si>
     <t>Harus Cosméticos</t>
@@ -1831,9 +1825,6 @@
   </si>
   <si>
     <t>leonardo.nogueira14@fatec.sp.gov.br</t>
-  </si>
-  <si>
-    <t>000178</t>
   </si>
   <si>
     <t>Automação</t>
@@ -2136,9 +2127,9 @@
   </sheetPr>
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU1" sqref="BU1"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10525,8 +10516,8 @@
       <c r="P39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q39" s="7" t="s">
-        <v>419</v>
+      <c r="Q39" s="7">
+        <v>5</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>85</v>
@@ -10577,7 +10568,7 @@
         <v>191</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AI39" s="3" t="s">
         <v>129</v>
@@ -10655,7 +10646,7 @@
         <v>154</v>
       </c>
       <c r="BH39" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BI39" s="3" t="s">
         <v>107</v>
@@ -10694,7 +10685,7 @@
         <v>175</v>
       </c>
       <c r="BU39" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.2">
@@ -10702,7 +10693,7 @@
         <v>44260.68363590278</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>74</v>
@@ -10714,7 +10705,7 @@
         <v>2021002</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>77</v>
@@ -10735,7 +10726,7 @@
         <v>121</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>418</v>
@@ -10816,7 +10807,7 @@
         <v>103</v>
       </c>
       <c r="AN40" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO40" s="3" t="s">
         <v>281</v>
@@ -10882,7 +10873,7 @@
         <v>137</v>
       </c>
       <c r="BJ40" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BK40" s="3" t="s">
         <v>109</v>
@@ -10891,13 +10882,13 @@
         <v>139</v>
       </c>
       <c r="BM40" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BN40" s="3" t="s">
         <v>254</v>
       </c>
       <c r="BO40" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BP40" s="3" t="s">
         <v>174</v>
@@ -10915,7 +10906,7 @@
         <v>145</v>
       </c>
       <c r="BU40" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.2">
@@ -10923,7 +10914,7 @@
         <v>44260.784368020832</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>74</v>
@@ -11019,7 +11010,7 @@
         <v>151</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI41" s="3" t="s">
         <v>129</v>
@@ -11097,7 +11088,7 @@
         <v>135</v>
       </c>
       <c r="BH41" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BI41" s="3" t="s">
         <v>82</v>
@@ -11118,7 +11109,7 @@
         <v>141</v>
       </c>
       <c r="BO41" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BP41" s="3" t="s">
         <v>114</v>
@@ -11136,7 +11127,7 @@
         <v>175</v>
       </c>
       <c r="BU41" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.2">
@@ -11144,7 +11135,7 @@
         <v>44260.803985983795</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>74</v>
@@ -11240,7 +11231,7 @@
         <v>127</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AI42" s="3" t="s">
         <v>152</v>
@@ -11318,7 +11309,7 @@
         <v>135</v>
       </c>
       <c r="BH42" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BI42" s="3" t="s">
         <v>220</v>
@@ -11339,7 +11330,7 @@
         <v>158</v>
       </c>
       <c r="BO42" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BP42" s="3" t="s">
         <v>413</v>
@@ -11357,7 +11348,7 @@
         <v>175</v>
       </c>
       <c r="BU42" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.2">
@@ -11365,7 +11356,7 @@
         <v>44260.813511562505</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>74</v>
@@ -11377,7 +11368,7 @@
         <v>2023025</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>77</v>
@@ -11409,8 +11400,8 @@
       <c r="P43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q43" s="7" t="s">
-        <v>442</v>
+      <c r="Q43" s="7">
+        <v>9</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>123</v>
@@ -11461,7 +11452,7 @@
         <v>151</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AI43" s="3" t="s">
         <v>129</v>
@@ -11545,7 +11536,7 @@
         <v>220</v>
       </c>
       <c r="BJ43" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BK43" s="3" t="s">
         <v>109</v>
@@ -11554,10 +11545,10 @@
         <v>139</v>
       </c>
       <c r="BM43" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="BN43" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BO43" s="3" t="s">
         <v>262</v>
@@ -11566,7 +11557,7 @@
         <v>256</v>
       </c>
       <c r="BQ43" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="BR43" s="3" t="s">
         <v>109</v>
@@ -11578,7 +11569,7 @@
         <v>117</v>
       </c>
       <c r="BU43" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.2">
@@ -11586,7 +11577,7 @@
         <v>44260.818119270829</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>74</v>
@@ -11781,7 +11772,7 @@
         <v>158</v>
       </c>
       <c r="BO44" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BP44" s="3" t="s">
         <v>256</v>
@@ -11799,7 +11790,7 @@
         <v>175</v>
       </c>
       <c r="BU44" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.2">
@@ -11807,7 +11798,7 @@
         <v>44261.406305856479</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>74</v>
@@ -11903,7 +11894,7 @@
         <v>165</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AI45" s="3" t="s">
         <v>129</v>
@@ -11987,7 +11978,7 @@
         <v>107</v>
       </c>
       <c r="BJ45" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BK45" s="3" t="s">
         <v>109</v>
@@ -12020,7 +12011,7 @@
         <v>314</v>
       </c>
       <c r="BU45" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:73" x14ac:dyDescent="0.2">
@@ -12028,7 +12019,7 @@
         <v>44260.88511231482</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>74</v>
@@ -12124,7 +12115,7 @@
         <v>151</v>
       </c>
       <c r="AH46" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AI46" s="3" t="s">
         <v>152</v>
@@ -12202,13 +12193,13 @@
         <v>135</v>
       </c>
       <c r="BH46" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BI46" s="3" t="s">
         <v>137</v>
       </c>
       <c r="BJ46" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="BK46" s="3" t="s">
         <v>109</v>
@@ -12241,7 +12232,7 @@
         <v>175</v>
       </c>
       <c r="BU46" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.2">
@@ -12249,7 +12240,7 @@
         <v>44260.936375185185</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>74</v>
@@ -12345,7 +12336,7 @@
         <v>151</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AI47" s="3" t="s">
         <v>92</v>
@@ -12429,7 +12420,7 @@
         <v>82</v>
       </c>
       <c r="BJ47" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BK47" s="3" t="s">
         <v>87</v>
@@ -12438,10 +12429,10 @@
         <v>231</v>
       </c>
       <c r="BM47" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BN47" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BO47" s="3" t="s">
         <v>196</v>
@@ -12450,7 +12441,7 @@
         <v>197</v>
       </c>
       <c r="BQ47" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BR47" s="3" t="s">
         <v>109</v>
@@ -12462,7 +12453,7 @@
         <v>314</v>
       </c>
       <c r="BU47" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.2">
@@ -12470,7 +12461,7 @@
         <v>44260.945002476852</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>74</v>
@@ -12566,7 +12557,7 @@
         <v>151</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AI48" s="3" t="s">
         <v>129</v>
@@ -12584,10 +12575,10 @@
         <v>103</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AP48" s="3" t="s">
         <v>99</v>
@@ -12644,7 +12635,7 @@
         <v>135</v>
       </c>
       <c r="BH48" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BI48" s="3" t="s">
         <v>107</v>
@@ -12659,7 +12650,7 @@
         <v>80</v>
       </c>
       <c r="BM48" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BN48" s="3" t="s">
         <v>158</v>
@@ -12683,7 +12674,7 @@
         <v>314</v>
       </c>
       <c r="BU48" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:73" x14ac:dyDescent="0.2">
@@ -12691,7 +12682,7 @@
         <v>44260.947261817128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>74</v>
@@ -12787,7 +12778,7 @@
         <v>151</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AI49" s="3" t="s">
         <v>152</v>
@@ -12883,10 +12874,10 @@
         <v>194</v>
       </c>
       <c r="BN49" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BO49" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BP49" s="3" t="s">
         <v>197</v>
@@ -12909,7 +12900,7 @@
         <v>44260.976459699072</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>74</v>
@@ -13083,13 +13074,13 @@
         <v>219</v>
       </c>
       <c r="BH50" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BI50" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ50" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BK50" s="3" t="s">
         <v>109</v>
@@ -13104,7 +13095,7 @@
         <v>158</v>
       </c>
       <c r="BO50" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BP50" s="3" t="s">
         <v>234</v>
@@ -13122,7 +13113,7 @@
         <v>314</v>
       </c>
       <c r="BU50" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:73" x14ac:dyDescent="0.2">
@@ -13130,7 +13121,7 @@
         <v>44261.042403888889</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>74</v>
@@ -13145,7 +13136,7 @@
         <v>76</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>78</v>
@@ -13226,7 +13217,7 @@
         <v>151</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AI51" s="3" t="s">
         <v>129</v>
@@ -13304,7 +13295,7 @@
         <v>135</v>
       </c>
       <c r="BH51" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BI51" s="3" t="s">
         <v>107</v>
@@ -13325,7 +13316,7 @@
         <v>254</v>
       </c>
       <c r="BO51" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="BP51" s="3" t="s">
         <v>256</v>
@@ -13343,7 +13334,7 @@
         <v>269</v>
       </c>
       <c r="BU51" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:73" x14ac:dyDescent="0.2">
@@ -13351,7 +13342,7 @@
         <v>44261.047896064818</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>74</v>
@@ -13447,7 +13438,7 @@
         <v>151</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI52" s="3" t="s">
         <v>129</v>
@@ -13531,7 +13522,7 @@
         <v>137</v>
       </c>
       <c r="BJ52" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="BK52" s="3" t="s">
         <v>109</v>
@@ -13546,7 +13537,7 @@
         <v>158</v>
       </c>
       <c r="BO52" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="BP52" s="3" t="s">
         <v>234</v>
@@ -13564,7 +13555,7 @@
         <v>175</v>
       </c>
       <c r="BU52" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:73" x14ac:dyDescent="0.2">
@@ -13572,7 +13563,7 @@
         <v>44261.327996099542</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>74</v>
@@ -13668,7 +13659,7 @@
         <v>151</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AI53" s="3" t="s">
         <v>129</v>
@@ -13752,7 +13743,7 @@
         <v>107</v>
       </c>
       <c r="BJ53" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BK53" s="3" t="s">
         <v>109</v>
@@ -13761,7 +13752,7 @@
         <v>110</v>
       </c>
       <c r="BM53" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="BN53" s="3" t="s">
         <v>158</v>
@@ -13785,7 +13776,7 @@
         <v>269</v>
       </c>
       <c r="BU53" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:73" x14ac:dyDescent="0.2">
@@ -13793,7 +13784,7 @@
         <v>44261.332426678244</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>74</v>
@@ -13817,7 +13808,7 @@
         <v>30382</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>80</v>
@@ -13826,7 +13817,7 @@
         <v>121</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>83</v>
@@ -13889,7 +13880,7 @@
         <v>151</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AI54" s="3" t="s">
         <v>129</v>
@@ -13973,7 +13964,7 @@
         <v>107</v>
       </c>
       <c r="BJ54" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="BK54" s="3" t="s">
         <v>109</v>
@@ -13985,7 +13976,7 @@
         <v>289</v>
       </c>
       <c r="BN54" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BO54" s="3" t="s">
         <v>196</v>
@@ -14006,7 +13997,7 @@
         <v>117</v>
       </c>
       <c r="BU54" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:73" x14ac:dyDescent="0.2">
@@ -14014,7 +14005,7 @@
         <v>44261.347066666669</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>74</v>
@@ -14110,7 +14101,7 @@
         <v>151</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AI55" s="3" t="s">
         <v>152</v>
@@ -14188,7 +14179,7 @@
         <v>219</v>
       </c>
       <c r="BH55" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="BI55" s="3" t="s">
         <v>394</v>
@@ -14215,7 +14206,7 @@
         <v>143</v>
       </c>
       <c r="BQ55" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="BR55" s="3" t="s">
         <v>109</v>
@@ -14227,7 +14218,7 @@
         <v>175</v>
       </c>
       <c r="BU55" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:73" x14ac:dyDescent="0.2">
@@ -14235,7 +14226,7 @@
         <v>44261.355945277777</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>74</v>
@@ -14331,7 +14322,7 @@
         <v>151</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AI56" s="3" t="s">
         <v>152</v>
@@ -14349,10 +14340,10 @@
         <v>100</v>
       </c>
       <c r="AN56" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AO56" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AP56" s="3" t="s">
         <v>99</v>
@@ -14424,19 +14415,19 @@
         <v>139</v>
       </c>
       <c r="BM56" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="BN56" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO56" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BP56" s="3" t="s">
         <v>197</v>
       </c>
       <c r="BQ56" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="BR56" s="3" t="s">
         <v>109</v>
@@ -14448,7 +14439,7 @@
         <v>117</v>
       </c>
       <c r="BU56" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="1:73" x14ac:dyDescent="0.2">
@@ -14456,7 +14447,7 @@
         <v>44261.357688726857</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>74</v>
@@ -14552,7 +14543,7 @@
         <v>151</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AI57" s="3" t="s">
         <v>166</v>
@@ -14636,7 +14627,7 @@
         <v>220</v>
       </c>
       <c r="BJ57" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BK57" s="3" t="s">
         <v>109</v>
@@ -14657,7 +14648,7 @@
         <v>174</v>
       </c>
       <c r="BQ57" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BR57" s="3" t="s">
         <v>109</v>
@@ -14669,7 +14660,7 @@
         <v>269</v>
       </c>
       <c r="BU57" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:73" x14ac:dyDescent="0.2">
@@ -14677,7 +14668,7 @@
         <v>44261.359977152781</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>74</v>
@@ -14707,10 +14698,10 @@
         <v>80</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>149</v>
@@ -14773,7 +14764,7 @@
         <v>151</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AI58" s="3" t="s">
         <v>152</v>
@@ -14857,7 +14848,7 @@
         <v>137</v>
       </c>
       <c r="BJ58" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="BK58" s="3" t="s">
         <v>87</v>
@@ -14872,13 +14863,13 @@
         <v>254</v>
       </c>
       <c r="BO58" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="BP58" s="3" t="s">
         <v>160</v>
       </c>
       <c r="BQ58" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="BR58" s="3" t="s">
         <v>109</v>
@@ -14890,7 +14881,7 @@
         <v>117</v>
       </c>
       <c r="BU58" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59" spans="1:73" x14ac:dyDescent="0.2">
@@ -14898,7 +14889,7 @@
         <v>44261.456565694447</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>74</v>
@@ -14994,7 +14985,7 @@
         <v>191</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AI59" s="3" t="s">
         <v>217</v>
@@ -15078,7 +15069,7 @@
         <v>107</v>
       </c>
       <c r="BJ59" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="BK59" s="3" t="s">
         <v>87</v>
@@ -15096,7 +15087,7 @@
         <v>301</v>
       </c>
       <c r="BP59" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="BQ59" s="3" t="s">
         <v>115</v>
@@ -15116,7 +15107,7 @@
         <v>44261.408783854167</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>74</v>
@@ -15290,13 +15281,13 @@
         <v>135</v>
       </c>
       <c r="BH60" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BI60" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ60" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BK60" s="3" t="s">
         <v>87</v>
@@ -15311,7 +15302,7 @@
         <v>158</v>
       </c>
       <c r="BO60" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BP60" s="3" t="s">
         <v>114</v>
@@ -15334,7 +15325,7 @@
         <v>44261.442637974542</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>74</v>
@@ -15349,7 +15340,7 @@
         <v>76</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>78</v>
@@ -15430,7 +15421,7 @@
         <v>151</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AI61" s="3" t="s">
         <v>129</v>
@@ -15514,7 +15505,7 @@
         <v>220</v>
       </c>
       <c r="BJ61" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BK61" s="3" t="s">
         <v>109</v>
@@ -15523,7 +15514,7 @@
         <v>80</v>
       </c>
       <c r="BM61" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BN61" s="3" t="s">
         <v>158</v>
@@ -15535,7 +15526,7 @@
         <v>114</v>
       </c>
       <c r="BQ61" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BR61" s="3" t="s">
         <v>109</v>
@@ -15547,7 +15538,7 @@
         <v>117</v>
       </c>
       <c r="BU61" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:73" x14ac:dyDescent="0.2">
@@ -15555,7 +15546,7 @@
         <v>44261.447496215274</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>74</v>
@@ -15744,7 +15735,7 @@
         <v>231</v>
       </c>
       <c r="BM62" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BN62" s="3" t="s">
         <v>158</v>
@@ -15768,7 +15759,7 @@
         <v>145</v>
       </c>
       <c r="BU62" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:73" x14ac:dyDescent="0.2">
@@ -15776,7 +15767,7 @@
         <v>44261.519795995366</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>74</v>
@@ -15893,7 +15884,7 @@
         <v>178</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AP63" s="3" t="s">
         <v>99</v>
@@ -15956,7 +15947,7 @@
         <v>82</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="BK63" s="3" t="s">
         <v>87</v>
@@ -15977,7 +15968,7 @@
         <v>174</v>
       </c>
       <c r="BQ63" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="BR63" s="3" t="s">
         <v>109</v>
@@ -15989,7 +15980,7 @@
         <v>269</v>
       </c>
       <c r="BU63" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:73" x14ac:dyDescent="0.2">
@@ -15997,7 +15988,7 @@
         <v>44261.688039942128</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>74</v>
@@ -16111,10 +16102,10 @@
         <v>96</v>
       </c>
       <c r="AN64" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AO64" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AP64" s="3" t="s">
         <v>99</v>
@@ -16186,19 +16177,19 @@
         <v>110</v>
       </c>
       <c r="BM64" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="BN64" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="BO64" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="BN64" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="BO64" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="BP64" s="3" t="s">
         <v>223</v>
       </c>
       <c r="BQ64" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BR64" s="3" t="s">
         <v>109</v>
@@ -16210,7 +16201,7 @@
         <v>117</v>
       </c>
       <c r="BU64" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:73" x14ac:dyDescent="0.2">
@@ -16218,7 +16209,7 @@
         <v>44261.819814999995</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>74</v>
@@ -16233,7 +16224,7 @@
         <v>76</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>78</v>
@@ -16314,7 +16305,7 @@
         <v>151</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AI65" s="3" t="s">
         <v>129</v>
@@ -16332,7 +16323,7 @@
         <v>96</v>
       </c>
       <c r="AN65" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AO65" s="3" t="s">
         <v>98</v>
@@ -16398,7 +16389,7 @@
         <v>137</v>
       </c>
       <c r="BJ65" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BK65" s="3" t="s">
         <v>109</v>
@@ -16419,7 +16410,7 @@
         <v>174</v>
       </c>
       <c r="BQ65" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="BR65" s="3" t="s">
         <v>109</v>
@@ -16431,7 +16422,7 @@
         <v>397</v>
       </c>
       <c r="BU65" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:73" x14ac:dyDescent="0.2">
@@ -16439,7 +16430,7 @@
         <v>44261.8660852662</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>74</v>
@@ -16634,13 +16625,13 @@
         <v>158</v>
       </c>
       <c r="BO66" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BP66" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ66" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BR66" s="3" t="s">
         <v>109</v>
@@ -16657,7 +16648,7 @@
         <v>44261.959790486115</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>74</v>
@@ -16665,8 +16656,8 @@
       <c r="D67" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>559</v>
+      <c r="E67" s="7">
+        <v>1000178</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>76</v>
@@ -16753,7 +16744,7 @@
         <v>151</v>
       </c>
       <c r="AH67" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AI67" s="3" t="s">
         <v>129</v>
@@ -16771,10 +16762,10 @@
         <v>100</v>
       </c>
       <c r="AN67" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AO67" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AP67" s="3" t="s">
         <v>100</v>
@@ -16831,13 +16822,13 @@
         <v>219</v>
       </c>
       <c r="BH67" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="BI67" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ67" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="BK67" s="3" t="s">
         <v>109</v>
@@ -16846,10 +16837,10 @@
         <v>139</v>
       </c>
       <c r="BM67" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="BN67" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="BO67" s="3" t="s">
         <v>196</v>
@@ -16858,7 +16849,7 @@
         <v>143</v>
       </c>
       <c r="BQ67" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="BR67" s="3" t="s">
         <v>109</v>
@@ -16870,7 +16861,7 @@
         <v>175</v>
       </c>
       <c r="BU67" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
+++ b/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqui\Desktop\ProjetosJS\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D90BB-8948-4C48-8AA8-003D45619D40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5BE5C-C28F-49CB-B094-0C0024FCDBDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13425" yWindow="120" windowWidth="22140" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="559">
   <si>
     <t>Timestamp</t>
   </si>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>paulohlllemos@gmail.com</t>
-  </si>
-  <si>
-    <t>01</t>
   </si>
   <si>
     <t>Pós-graduação</t>
@@ -1177,9 +1174,6 @@
     <t>Internet, Tv por assinatura, Empregada mensalista</t>
   </si>
   <si>
-    <t xml:space="preserve">a do meu pai, sem registro </t>
-  </si>
-  <si>
     <t>Notícia locais, Notícias nacionais, Notícias internacionais, Notícias policiais, Moda</t>
   </si>
   <si>
@@ -1231,9 +1225,6 @@
     <t>Obter novos conhecimentos, Obter competências para exercício de uma profissão, Conhecer novas pessoas</t>
   </si>
   <si>
-    <t xml:space="preserve">Não. </t>
-  </si>
-  <si>
     <t>quelidiane.m@gmail.com</t>
   </si>
   <si>
@@ -1505,9 +1496,6 @@
   </si>
   <si>
     <t>willian.peixoto@fatec.sp.gov.br</t>
-  </si>
-  <si>
-    <t>nenhuma</t>
   </si>
   <si>
     <t>Outros</t>
@@ -1592,9 +1580,6 @@
     <t>Este curso forma profissionais facilmente absorvidos pelo mercado, Este curso é gratuito, Outros motivos</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>rafarteixeira031@gmail.com</t>
   </si>
   <si>
@@ -1653,9 +1638,6 @@
     <t>Dois</t>
   </si>
   <si>
-    <t>Não trabalho registrado</t>
-  </si>
-  <si>
     <t>Ficção, Policial, Outros</t>
   </si>
   <si>
@@ -1812,9 +1794,6 @@
     <t>Ribeirão Corrente</t>
   </si>
   <si>
-    <t>não posso informar</t>
-  </si>
-  <si>
     <t>Nenhuma expectativa</t>
   </si>
   <si>
@@ -1846,6 +1825,12 @@
   </si>
   <si>
     <t>Estou muito feliz pela oportunidade de fazer um curso superior.</t>
+  </si>
+  <si>
+    <t>Não informou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não informou </t>
   </si>
 </sst>
 </file>
@@ -2127,9 +2112,9 @@
   </sheetPr>
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BM2" sqref="BM2"/>
+      <selection pane="bottomLeft" activeCell="BT69" sqref="BT69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2575,6 +2560,9 @@
       <c r="BT2" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="BU2" s="3" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -2897,6 +2885,9 @@
       <c r="AG4" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="AH4" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="AI4" s="3" t="s">
         <v>152</v>
       </c>
@@ -3010,6 +3001,9 @@
       </c>
       <c r="BT4" s="3" t="s">
         <v>117</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.2">
@@ -3112,6 +3106,9 @@
       <c r="AG5" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="AH5" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AI5" s="3" t="s">
         <v>166</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>165</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AI6" s="3" t="s">
         <v>129</v>
@@ -3748,8 +3745,8 @@
       <c r="Y8" s="3">
         <v>1</v>
       </c>
-      <c r="Z8" s="7" t="s">
-        <v>201</v>
+      <c r="Z8" s="7">
+        <v>1</v>
       </c>
       <c r="AA8" s="3">
         <v>1</v>
@@ -3772,14 +3769,17 @@
       <c r="AG8" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="AH8" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AI8" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AJ8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK8" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="AL8" s="3" t="s">
         <v>95</v>
@@ -3788,10 +3788,10 @@
         <v>96</v>
       </c>
       <c r="AN8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO8" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>99</v>
@@ -3848,13 +3848,13 @@
         <v>135</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BI8" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BK8" s="3" t="s">
         <v>109</v>
@@ -3863,7 +3863,7 @@
         <v>80</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN8" s="3" t="s">
         <v>158</v>
@@ -3875,25 +3875,27 @@
         <v>174</v>
       </c>
       <c r="BQ8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BR8" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BT8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="BU8" s="3"/>
+      <c r="BU8" s="3" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>44259.581507407405</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>74</v>
@@ -3988,6 +3990,9 @@
       <c r="AG9" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="AH9" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AI9" s="3" t="s">
         <v>129</v>
       </c>
@@ -4085,13 +4090,13 @@
         <v>158</v>
       </c>
       <c r="BO9" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BP9" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BR9" s="3" t="s">
         <v>109</v>
@@ -4101,6 +4106,9 @@
       </c>
       <c r="BT9" s="3" t="s">
         <v>117</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.2">
@@ -4108,7 +4116,7 @@
         <v>44259.815938055559</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>74</v>
@@ -4156,7 +4164,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
@@ -4204,10 +4212,10 @@
         <v>151</v>
       </c>
       <c r="AH10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI10" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="AJ10" s="3" t="s">
         <v>94</v>
@@ -4222,7 +4230,7 @@
         <v>96</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO10" s="3" t="s">
         <v>98</v>
@@ -4279,16 +4287,16 @@
         <v>134</v>
       </c>
       <c r="BG10" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="BI10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="BJ10" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="BK10" s="3" t="s">
         <v>109</v>
@@ -4303,13 +4311,13 @@
         <v>158</v>
       </c>
       <c r="BO10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BP10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BP10" s="3" t="s">
+      <c r="BQ10" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="BQ10" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="BR10" s="3" t="s">
         <v>109</v>
@@ -4321,7 +4329,7 @@
         <v>117</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.2">
@@ -4329,7 +4337,7 @@
         <v>44259.821031666666</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>74</v>
@@ -4371,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="3">
         <v>31</v>
@@ -4416,7 +4424,7 @@
         <v>87</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>89</v>
@@ -4424,6 +4432,9 @@
       <c r="AG11" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="AH11" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="AI11" s="3" t="s">
         <v>129</v>
       </c>
@@ -4440,7 +4451,7 @@
         <v>96</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO11" s="3" t="s">
         <v>98</v>
@@ -4500,34 +4511,34 @@
         <v>135</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BI11" s="3" t="s">
         <v>137</v>
       </c>
       <c r="BJ11" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BK11" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BL11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM11" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="BM11" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="BN11" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP11" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="BP11" s="3" t="s">
+      <c r="BQ11" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="BQ11" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="BR11" s="3" t="s">
         <v>109</v>
@@ -4539,7 +4550,7 @@
         <v>175</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.2">
@@ -4547,7 +4558,7 @@
         <v>44259.822573831014</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>74</v>
@@ -4628,13 +4639,13 @@
         <v>4</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>87</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>126</v>
@@ -4643,7 +4654,7 @@
         <v>151</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI12" s="3" t="s">
         <v>129</v>
@@ -4724,10 +4735,10 @@
         <v>106</v>
       </c>
       <c r="BI12" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ12" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BK12" s="3" t="s">
         <v>109</v>
@@ -4736,19 +4747,19 @@
         <v>80</v>
       </c>
       <c r="BM12" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN12" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="BN12" s="3" t="s">
+      <c r="BO12" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="BO12" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="BP12" s="3" t="s">
         <v>143</v>
       </c>
       <c r="BQ12" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BR12" s="3" t="s">
         <v>109</v>
@@ -4760,7 +4771,7 @@
         <v>175</v>
       </c>
       <c r="BU12" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.2">
@@ -4768,7 +4779,7 @@
         <v>44259.839947604167</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>74</v>
@@ -4855,16 +4866,16 @@
         <v>87</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>89</v>
       </c>
       <c r="AG13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH13" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="AI13" s="3" t="s">
         <v>129</v>
@@ -4885,7 +4896,7 @@
         <v>169</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP13" s="3" t="s">
         <v>99</v>
@@ -4942,34 +4953,34 @@
         <v>135</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI13" s="3" t="s">
         <v>137</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BK13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BL13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM13" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="BM13" s="3" t="s">
+      <c r="BN13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="BN13" s="3" t="s">
+      <c r="BO13" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="BO13" s="3" t="s">
+      <c r="BP13" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="BP13" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="BQ13" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BR13" s="3" t="s">
         <v>109</v>
@@ -4981,7 +4992,7 @@
         <v>117</v>
       </c>
       <c r="BU13" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.2">
@@ -4989,7 +5000,7 @@
         <v>44259.840510405091</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>74</v>
@@ -5085,7 +5096,7 @@
         <v>90</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI14" s="3" t="s">
         <v>129</v>
@@ -5106,7 +5117,7 @@
         <v>169</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>99</v>
@@ -5178,19 +5189,19 @@
         <v>139</v>
       </c>
       <c r="BM14" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN14" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP14" s="3" t="s">
         <v>143</v>
       </c>
       <c r="BQ14" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BR14" s="3" t="s">
         <v>109</v>
@@ -5200,6 +5211,9 @@
       </c>
       <c r="BT14" s="3" t="s">
         <v>117</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.2">
@@ -5207,7 +5221,7 @@
         <v>44261.516660428242</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>74</v>
@@ -5249,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q15" s="3">
         <v>24</v>
@@ -5302,6 +5316,9 @@
       <c r="AG15" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="AH15" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AI15" s="3" t="s">
         <v>129</v>
       </c>
@@ -5384,7 +5401,7 @@
         <v>107</v>
       </c>
       <c r="BJ15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BK15" s="3" t="s">
         <v>109</v>
@@ -5393,19 +5410,19 @@
         <v>139</v>
       </c>
       <c r="BM15" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BN15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="BO15" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BO15" s="3" t="s">
+      <c r="BP15" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BP15" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="BQ15" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BR15" s="3" t="s">
         <v>109</v>
@@ -5414,10 +5431,10 @@
         <v>116</v>
       </c>
       <c r="BT15" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="BU15" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.2">
@@ -5425,7 +5442,7 @@
         <v>44259.933378668982</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>74</v>
@@ -5467,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="3">
         <v>1</v>
@@ -5512,7 +5529,7 @@
         <v>87</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>126</v>
@@ -5521,7 +5538,7 @@
         <v>151</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>92</v>
@@ -5605,7 +5622,7 @@
         <v>137</v>
       </c>
       <c r="BJ16" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BK16" s="3" t="s">
         <v>109</v>
@@ -5614,19 +5631,19 @@
         <v>80</v>
       </c>
       <c r="BM16" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BP16" s="3" t="s">
         <v>143</v>
       </c>
       <c r="BQ16" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BR16" s="3" t="s">
         <v>109</v>
@@ -5636,6 +5653,9 @@
       </c>
       <c r="BT16" s="3" t="s">
         <v>117</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:73" x14ac:dyDescent="0.2">
@@ -5643,7 +5663,7 @@
         <v>44259.939436921297</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>74</v>
@@ -5739,28 +5759,28 @@
         <v>151</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI17" s="3" t="s">
         <v>166</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK17" s="3" t="s">
         <v>130</v>
       </c>
       <c r="AL17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN17" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AM17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN17" s="3" t="s">
+      <c r="AO17" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="AO17" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="AP17" s="3" t="s">
         <v>99</v>
@@ -5823,19 +5843,19 @@
         <v>137</v>
       </c>
       <c r="BJ17" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BK17" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BL17" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN17" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="BN17" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="BO17" s="3" t="s">
         <v>113</v>
@@ -5853,10 +5873,10 @@
         <v>144</v>
       </c>
       <c r="BT17" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU17" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:73" x14ac:dyDescent="0.2">
@@ -5864,7 +5884,7 @@
         <v>44259.939585694447</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>74</v>
@@ -5891,7 +5911,7 @@
         <v>79</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>121</v>
@@ -5951,7 +5971,7 @@
         <v>87</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>89</v>
@@ -5960,7 +5980,7 @@
         <v>151</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI18" s="3" t="s">
         <v>129</v>
@@ -5981,7 +6001,7 @@
         <v>153</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>99</v>
@@ -6050,19 +6070,19 @@
         <v>109</v>
       </c>
       <c r="BL18" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM18" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BN18" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BP18" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="BN18" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="BO18" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="BP18" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="BQ18" s="3" t="s">
         <v>115</v>
@@ -6077,7 +6097,7 @@
         <v>145</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:73" x14ac:dyDescent="0.2">
@@ -6085,7 +6105,7 @@
         <v>44259.959800358796</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>74</v>
@@ -6172,7 +6192,7 @@
         <v>87</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF19" s="3" t="s">
         <v>89</v>
@@ -6181,7 +6201,7 @@
         <v>151</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>129</v>
@@ -6199,7 +6219,7 @@
         <v>96</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO19" s="3" t="s">
         <v>170</v>
@@ -6274,13 +6294,13 @@
         <v>80</v>
       </c>
       <c r="BM19" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BN19" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO19" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BP19" s="3" t="s">
         <v>143</v>
@@ -6298,7 +6318,7 @@
         <v>145</v>
       </c>
       <c r="BU19" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.2">
@@ -6306,7 +6326,7 @@
         <v>44259.959428321759</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>74</v>
@@ -6348,7 +6368,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="3">
         <v>2</v>
@@ -6402,7 +6422,7 @@
         <v>90</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI20" s="3" t="s">
         <v>129</v>
@@ -6420,7 +6440,7 @@
         <v>96</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO20" s="3" t="s">
         <v>98</v>
@@ -6486,28 +6506,28 @@
         <v>107</v>
       </c>
       <c r="BJ20" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BK20" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BL20" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM20" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BN20" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO20" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BP20" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ20" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BR20" s="3" t="s">
         <v>109</v>
@@ -6519,7 +6539,7 @@
         <v>175</v>
       </c>
       <c r="BU20" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.2">
@@ -6527,7 +6547,7 @@
         <v>44260.01869744213</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>74</v>
@@ -6623,7 +6643,7 @@
         <v>165</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AI21" s="3" t="s">
         <v>129</v>
@@ -6644,7 +6664,7 @@
         <v>169</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AP21" s="3" t="s">
         <v>99</v>
@@ -6716,16 +6736,16 @@
         <v>80</v>
       </c>
       <c r="BM21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO21" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="BN21" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="BO21" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="BP21" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ21" s="3" t="s">
         <v>115</v>
@@ -6740,7 +6760,7 @@
         <v>198</v>
       </c>
       <c r="BU21" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.2">
@@ -6748,7 +6768,7 @@
         <v>44260.032254768521</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>74</v>
@@ -6844,7 +6864,7 @@
         <v>90</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AI22" s="3" t="s">
         <v>129</v>
@@ -6859,13 +6879,13 @@
         <v>95</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP22" s="3" t="s">
         <v>99</v>
@@ -6943,13 +6963,13 @@
         <v>141</v>
       </c>
       <c r="BO22" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BP22" s="3" t="s">
         <v>143</v>
       </c>
       <c r="BQ22" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BR22" s="3" t="s">
         <v>109</v>
@@ -6958,10 +6978,10 @@
         <v>116</v>
       </c>
       <c r="BT22" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU22" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="BU22" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.2">
@@ -6969,7 +6989,7 @@
         <v>44260.337712141205</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>74</v>
@@ -7062,7 +7082,10 @@
         <v>126</v>
       </c>
       <c r="AG23" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="AI23" s="3" t="s">
         <v>129</v>
@@ -7074,13 +7097,13 @@
         <v>130</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM23" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AO23" s="3" t="s">
         <v>98</v>
@@ -7155,19 +7178,19 @@
         <v>80</v>
       </c>
       <c r="BM23" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BN23" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO23" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="BP23" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="BP23" s="3" t="s">
+      <c r="BQ23" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="BQ23" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="BR23" s="3" t="s">
         <v>87</v>
@@ -7177,6 +7200,9 @@
       </c>
       <c r="BT23" s="3" t="s">
         <v>117</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.2">
@@ -7184,7 +7210,7 @@
         <v>44260.349357013889</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>74</v>
@@ -7232,7 +7258,7 @@
         <v>9</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S24" s="3">
         <v>1</v>
@@ -7280,7 +7306,7 @@
         <v>90</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AI24" s="3" t="s">
         <v>129</v>
@@ -7301,7 +7327,7 @@
         <v>169</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP24" s="3" t="s">
         <v>99</v>
@@ -7364,7 +7390,7 @@
         <v>107</v>
       </c>
       <c r="BJ24" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BK24" s="3" t="s">
         <v>109</v>
@@ -7385,7 +7411,7 @@
         <v>174</v>
       </c>
       <c r="BQ24" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BR24" s="3" t="s">
         <v>109</v>
@@ -7394,10 +7420,10 @@
         <v>144</v>
       </c>
       <c r="BT24" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU24" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:73" x14ac:dyDescent="0.2">
@@ -7405,7 +7431,7 @@
         <v>44260.349480000004</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>74</v>
@@ -7447,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="3">
         <v>4</v>
@@ -7486,13 +7512,13 @@
         <v>2</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD25" s="3" t="s">
         <v>87</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF25" s="3" t="s">
         <v>89</v>
@@ -7500,11 +7526,14 @@
       <c r="AG25" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="AH25" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="AI25" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AJ25" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>94</v>
@@ -7516,10 +7545,10 @@
         <v>96</v>
       </c>
       <c r="AN25" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP25" s="3" t="s">
         <v>99</v>
@@ -7576,7 +7605,7 @@
         <v>135</v>
       </c>
       <c r="BH25" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BI25" s="3" t="s">
         <v>82</v>
@@ -7594,16 +7623,16 @@
         <v>111</v>
       </c>
       <c r="BN25" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO25" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="BO25" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="BP25" s="3" t="s">
         <v>160</v>
       </c>
       <c r="BQ25" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BR25" s="3" t="s">
         <v>109</v>
@@ -7612,7 +7641,10 @@
         <v>116</v>
       </c>
       <c r="BT25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.2">
@@ -7620,7 +7652,7 @@
         <v>44260.350739791669</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>74</v>
@@ -7707,16 +7739,16 @@
         <v>87</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF26" s="3" t="s">
         <v>89</v>
       </c>
       <c r="AG26" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI26" s="3" t="s">
         <v>152</v>
@@ -7737,7 +7769,7 @@
         <v>169</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AP26" s="3" t="s">
         <v>100</v>
@@ -7797,7 +7829,7 @@
         <v>106</v>
       </c>
       <c r="BI26" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ26" s="3" t="s">
         <v>171</v>
@@ -7806,34 +7838,34 @@
         <v>109</v>
       </c>
       <c r="BL26" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM26" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BN26" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO26" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP26" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ26" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BR26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BS26" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BT26" s="3" t="s">
         <v>145</v>
       </c>
       <c r="BU26" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:73" x14ac:dyDescent="0.2">
@@ -7841,7 +7873,7 @@
         <v>44260.35479798611</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>74</v>
@@ -7922,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AD27" s="3" t="s">
         <v>109</v>
@@ -7937,7 +7969,7 @@
         <v>165</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>341</v>
+        <v>165</v>
       </c>
       <c r="AI27" s="3" t="s">
         <v>129</v>
@@ -7952,13 +7984,13 @@
         <v>95</v>
       </c>
       <c r="AM27" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN27" s="3" t="s">
         <v>169</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP27" s="3" t="s">
         <v>99</v>
@@ -8012,16 +8044,16 @@
         <v>96</v>
       </c>
       <c r="BG27" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH27" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BI27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ27" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BK27" s="3" t="s">
         <v>87</v>
@@ -8030,19 +8062,19 @@
         <v>110</v>
       </c>
       <c r="BM27" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN27" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="BO27" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="BN27" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO27" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="BP27" s="3" t="s">
         <v>114</v>
       </c>
       <c r="BQ27" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BR27" s="3" t="s">
         <v>109</v>
@@ -8052,6 +8084,9 @@
       </c>
       <c r="BT27" s="3" t="s">
         <v>145</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.2">
@@ -8059,7 +8094,7 @@
         <v>44260.355723287037</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>74</v>
@@ -8146,16 +8181,16 @@
         <v>87</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF28" s="3" t="s">
         <v>126</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI28" s="3" t="s">
         <v>92</v>
@@ -8167,16 +8202,16 @@
         <v>167</v>
       </c>
       <c r="AL28" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AN28" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO28" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP28" s="3" t="s">
         <v>131</v>
@@ -8248,19 +8283,19 @@
         <v>110</v>
       </c>
       <c r="BM28" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BN28" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO28" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP28" s="3" t="s">
         <v>197</v>
       </c>
       <c r="BQ28" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BR28" s="3" t="s">
         <v>109</v>
@@ -8272,7 +8307,7 @@
         <v>117</v>
       </c>
       <c r="BU28" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:73" x14ac:dyDescent="0.2">
@@ -8280,7 +8315,7 @@
         <v>44260.356582499997</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>74</v>
@@ -8292,7 +8327,7 @@
         <v>2011036</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>77</v>
@@ -8316,13 +8351,13 @@
         <v>82</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O29" s="3">
         <v>3</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="3">
         <v>1</v>
@@ -8373,10 +8408,10 @@
         <v>89</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AI29" s="3" t="s">
         <v>129</v>
@@ -8391,7 +8426,7 @@
         <v>95</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN29" s="3" t="s">
         <v>169</v>
@@ -8451,7 +8486,7 @@
         <v>134</v>
       </c>
       <c r="BG29" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH29" s="3" t="s">
         <v>136</v>
@@ -8460,13 +8495,13 @@
         <v>107</v>
       </c>
       <c r="BJ29" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BK29" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BL29" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BM29" s="3" t="s">
         <v>157</v>
@@ -8475,13 +8510,13 @@
         <v>158</v>
       </c>
       <c r="BO29" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BP29" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BQ29" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BR29" s="3" t="s">
         <v>109</v>
@@ -8490,10 +8525,10 @@
         <v>116</v>
       </c>
       <c r="BT29" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU29" s="3" t="s">
-        <v>359</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:73" x14ac:dyDescent="0.2">
@@ -8501,7 +8536,7 @@
         <v>44260.363392708328</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>74</v>
@@ -8543,7 +8578,7 @@
         <v>5</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="3">
         <v>2</v>
@@ -8596,6 +8631,9 @@
       <c r="AG30" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="AH30" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AI30" s="3" t="s">
         <v>129</v>
       </c>
@@ -8615,7 +8653,7 @@
         <v>169</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>100</v>
@@ -8669,16 +8707,16 @@
         <v>100</v>
       </c>
       <c r="BG30" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="BH30" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ30" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="BK30" s="3" t="s">
         <v>109</v>
@@ -8687,16 +8725,16 @@
         <v>80</v>
       </c>
       <c r="BM30" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="BN30" s="3" t="s">
         <v>141</v>
       </c>
       <c r="BO30" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BP30" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BQ30" s="3" t="s">
         <v>115</v>
@@ -8709,6 +8747,9 @@
       </c>
       <c r="BT30" s="3" t="s">
         <v>145</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:73" x14ac:dyDescent="0.2">
@@ -8716,7 +8757,7 @@
         <v>44260.370782025464</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>74</v>
@@ -8809,7 +8850,7 @@
         <v>89</v>
       </c>
       <c r="AG31" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH31" s="3" t="s">
         <v>192</v>
@@ -8830,7 +8871,7 @@
         <v>96</v>
       </c>
       <c r="AN31" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO31" s="3" t="s">
         <v>193</v>
@@ -8890,13 +8931,13 @@
         <v>135</v>
       </c>
       <c r="BH31" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BI31" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ31" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BK31" s="3" t="s">
         <v>109</v>
@@ -8911,13 +8952,13 @@
         <v>158</v>
       </c>
       <c r="BO31" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BP31" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ31" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BR31" s="3" t="s">
         <v>109</v>
@@ -8929,7 +8970,7 @@
         <v>117</v>
       </c>
       <c r="BU31" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:73" x14ac:dyDescent="0.2">
@@ -8937,7 +8978,7 @@
         <v>44260.405225347218</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>74</v>
@@ -9033,7 +9074,7 @@
         <v>151</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AI32" s="3" t="s">
         <v>166</v>
@@ -9048,13 +9089,13 @@
         <v>95</v>
       </c>
       <c r="AM32" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN32" s="3" t="s">
         <v>169</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AP32" s="3" t="s">
         <v>99</v>
@@ -9111,13 +9152,13 @@
         <v>135</v>
       </c>
       <c r="BH32" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="BI32" s="3" t="s">
         <v>137</v>
       </c>
       <c r="BJ32" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="BK32" s="3" t="s">
         <v>109</v>
@@ -9126,16 +9167,16 @@
         <v>139</v>
       </c>
       <c r="BM32" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN32" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO32" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BP32" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ32" s="3" t="s">
         <v>115</v>
@@ -9150,7 +9191,7 @@
         <v>198</v>
       </c>
       <c r="BU32" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.2">
@@ -9158,7 +9199,7 @@
         <v>44260.42123068287</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>74</v>
@@ -9173,7 +9214,7 @@
         <v>76</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>120</v>
@@ -9239,7 +9280,7 @@
         <v>4</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD33" s="3" t="s">
         <v>87</v>
@@ -9254,13 +9295,13 @@
         <v>151</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AI33" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK33" s="3" t="s">
         <v>93</v>
@@ -9332,13 +9373,13 @@
         <v>135</v>
       </c>
       <c r="BH33" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="BI33" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ33" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BK33" s="3" t="s">
         <v>109</v>
@@ -9347,19 +9388,19 @@
         <v>139</v>
       </c>
       <c r="BM33" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BN33" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BO33" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BP33" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BQ33" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BR33" s="3" t="s">
         <v>109</v>
@@ -9368,10 +9409,10 @@
         <v>144</v>
       </c>
       <c r="BT33" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU33" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.2">
@@ -9379,7 +9420,7 @@
         <v>44260.436581574075</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>74</v>
@@ -9427,7 +9468,7 @@
         <v>25</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S34" s="3">
         <v>3</v>
@@ -9475,7 +9516,7 @@
         <v>151</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AI34" s="3" t="s">
         <v>166</v>
@@ -9556,10 +9597,10 @@
         <v>136</v>
       </c>
       <c r="BI34" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ34" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="BK34" s="3" t="s">
         <v>87</v>
@@ -9574,22 +9615,25 @@
         <v>141</v>
       </c>
       <c r="BO34" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="BP34" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ34" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="BR34" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BS34" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BT34" s="3" t="s">
         <v>117</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.2">
@@ -9597,7 +9641,7 @@
         <v>44260.443643032406</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>74</v>
@@ -9612,7 +9656,7 @@
         <v>76</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>78</v>
@@ -9705,13 +9749,13 @@
         <v>93</v>
       </c>
       <c r="AL35" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM35" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AN35" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO35" s="3" t="s">
         <v>193</v>
@@ -9774,10 +9818,10 @@
         <v>106</v>
       </c>
       <c r="BI35" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BJ35" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="BK35" s="3" t="s">
         <v>109</v>
@@ -9792,13 +9836,13 @@
         <v>195</v>
       </c>
       <c r="BO35" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BP35" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BQ35" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BR35" s="3" t="s">
         <v>109</v>
@@ -9807,7 +9851,10 @@
         <v>144</v>
       </c>
       <c r="BT35" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.2">
@@ -9815,7 +9862,7 @@
         <v>44260.460295254627</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>74</v>
@@ -9857,7 +9904,7 @@
         <v>3</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q36" s="3">
         <v>5</v>
@@ -9902,7 +9949,7 @@
         <v>87</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AF36" s="3" t="s">
         <v>89</v>
@@ -9911,7 +9958,7 @@
         <v>151</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AI36" s="3" t="s">
         <v>129</v>
@@ -9920,7 +9967,7 @@
         <v>93</v>
       </c>
       <c r="AK36" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL36" s="3" t="s">
         <v>95</v>
@@ -9929,10 +9976,10 @@
         <v>96</v>
       </c>
       <c r="AN36" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO36" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP36" s="3" t="s">
         <v>131</v>
@@ -9989,7 +10036,7 @@
         <v>135</v>
       </c>
       <c r="BH36" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BI36" s="3" t="s">
         <v>82</v>
@@ -10004,19 +10051,19 @@
         <v>139</v>
       </c>
       <c r="BM36" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="BN36" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="BO36" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="BP36" s="3" t="s">
         <v>160</v>
       </c>
       <c r="BQ36" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="BR36" s="3" t="s">
         <v>109</v>
@@ -10026,6 +10073,9 @@
       </c>
       <c r="BT36" s="3" t="s">
         <v>175</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.2">
@@ -10033,7 +10083,7 @@
         <v>44260.47113849537</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>74</v>
@@ -10128,8 +10178,11 @@
       <c r="AG37" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="AH37" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AI37" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AJ37" s="3" t="s">
         <v>130</v>
@@ -10147,7 +10200,7 @@
         <v>169</v>
       </c>
       <c r="AO37" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP37" s="3" t="s">
         <v>100</v>
@@ -10204,7 +10257,7 @@
         <v>135</v>
       </c>
       <c r="BH37" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI37" s="3" t="s">
         <v>82</v>
@@ -10219,13 +10272,13 @@
         <v>139</v>
       </c>
       <c r="BM37" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="BN37" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO37" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP37" s="3" t="s">
         <v>174</v>
@@ -10237,13 +10290,13 @@
         <v>109</v>
       </c>
       <c r="BS37" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BT37" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU37" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:73" x14ac:dyDescent="0.2">
@@ -10251,7 +10304,7 @@
         <v>44260.531303032403</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>74</v>
@@ -10299,7 +10352,7 @@
         <v>6</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S38" s="3">
         <v>1</v>
@@ -10338,7 +10391,7 @@
         <v>87</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF38" s="3" t="s">
         <v>89</v>
@@ -10347,7 +10400,7 @@
         <v>90</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AI38" s="3" t="s">
         <v>152</v>
@@ -10359,13 +10412,13 @@
         <v>167</v>
       </c>
       <c r="AL38" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM38" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AN38" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO38" s="3" t="s">
         <v>98</v>
@@ -10425,13 +10478,13 @@
         <v>135</v>
       </c>
       <c r="BH38" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="BI38" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ38" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="BK38" s="3" t="s">
         <v>109</v>
@@ -10440,19 +10493,19 @@
         <v>80</v>
       </c>
       <c r="BM38" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="BN38" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO38" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BP38" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="BQ38" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BR38" s="3" t="s">
         <v>109</v>
@@ -10461,10 +10514,10 @@
         <v>116</v>
       </c>
       <c r="BT38" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU38" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:73" x14ac:dyDescent="0.2">
@@ -10472,7 +10525,7 @@
         <v>44260.648088923612</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>74</v>
@@ -10490,7 +10543,7 @@
         <v>77</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I39" s="4">
         <v>36191</v>
@@ -10508,7 +10561,7 @@
         <v>82</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
@@ -10559,7 +10612,7 @@
         <v>87</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF39" s="3" t="s">
         <v>89</v>
@@ -10568,7 +10621,7 @@
         <v>191</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AI39" s="3" t="s">
         <v>129</v>
@@ -10583,13 +10636,13 @@
         <v>95</v>
       </c>
       <c r="AM39" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN39" s="3" t="s">
         <v>169</v>
       </c>
       <c r="AO39" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP39" s="3" t="s">
         <v>99</v>
@@ -10646,7 +10699,7 @@
         <v>154</v>
       </c>
       <c r="BH39" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="BI39" s="3" t="s">
         <v>107</v>
@@ -10661,7 +10714,7 @@
         <v>139</v>
       </c>
       <c r="BM39" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BN39" s="3" t="s">
         <v>195</v>
@@ -10670,10 +10723,10 @@
         <v>196</v>
       </c>
       <c r="BP39" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ39" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BR39" s="3" t="s">
         <v>109</v>
@@ -10685,7 +10738,7 @@
         <v>175</v>
       </c>
       <c r="BU39" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.2">
@@ -10693,7 +10746,7 @@
         <v>44260.68363590278</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>74</v>
@@ -10705,7 +10758,7 @@
         <v>2021002</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>77</v>
@@ -10726,16 +10779,16 @@
         <v>121</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q40" s="3">
         <v>5</v>
@@ -10767,11 +10820,11 @@
       <c r="Z40" s="3">
         <v>0</v>
       </c>
-      <c r="AA40" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB40" s="7" t="s">
-        <v>201</v>
+      <c r="AA40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>1</v>
       </c>
       <c r="AC40" s="3" t="s">
         <v>86</v>
@@ -10786,10 +10839,10 @@
         <v>89</v>
       </c>
       <c r="AG40" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AI40" s="3" t="s">
         <v>129</v>
@@ -10807,10 +10860,10 @@
         <v>103</v>
       </c>
       <c r="AN40" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AO40" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP40" s="3" t="s">
         <v>100</v>
@@ -10864,7 +10917,7 @@
         <v>134</v>
       </c>
       <c r="BG40" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH40" s="3" t="s">
         <v>136</v>
@@ -10873,7 +10926,7 @@
         <v>137</v>
       </c>
       <c r="BJ40" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="BK40" s="3" t="s">
         <v>109</v>
@@ -10882,13 +10935,13 @@
         <v>139</v>
       </c>
       <c r="BM40" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BN40" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO40" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BP40" s="3" t="s">
         <v>174</v>
@@ -10906,7 +10959,7 @@
         <v>145</v>
       </c>
       <c r="BU40" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.2">
@@ -10914,7 +10967,7 @@
         <v>44260.784368020832</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>74</v>
@@ -11001,7 +11054,7 @@
         <v>87</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF41" s="3" t="s">
         <v>89</v>
@@ -11010,7 +11063,7 @@
         <v>151</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AI41" s="3" t="s">
         <v>129</v>
@@ -11025,13 +11078,13 @@
         <v>95</v>
       </c>
       <c r="AM41" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN41" s="3" t="s">
         <v>169</v>
       </c>
       <c r="AO41" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP41" s="3" t="s">
         <v>99</v>
@@ -11088,7 +11141,7 @@
         <v>135</v>
       </c>
       <c r="BH41" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="BI41" s="3" t="s">
         <v>82</v>
@@ -11109,13 +11162,13 @@
         <v>141</v>
       </c>
       <c r="BO41" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="BP41" s="3" t="s">
         <v>114</v>
       </c>
       <c r="BQ41" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BR41" s="3" t="s">
         <v>109</v>
@@ -11127,7 +11180,7 @@
         <v>175</v>
       </c>
       <c r="BU41" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.2">
@@ -11135,7 +11188,7 @@
         <v>44260.803985983795</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>74</v>
@@ -11183,7 +11236,7 @@
         <v>14</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S42" s="3">
         <v>2</v>
@@ -11222,7 +11275,7 @@
         <v>87</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF42" s="3" t="s">
         <v>89</v>
@@ -11231,7 +11284,7 @@
         <v>127</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AI42" s="3" t="s">
         <v>152</v>
@@ -11249,7 +11302,7 @@
         <v>96</v>
       </c>
       <c r="AN42" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO42" s="3" t="s">
         <v>98</v>
@@ -11309,13 +11362,13 @@
         <v>135</v>
       </c>
       <c r="BH42" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="BI42" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ42" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BK42" s="3" t="s">
         <v>109</v>
@@ -11324,19 +11377,19 @@
         <v>139</v>
       </c>
       <c r="BM42" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BN42" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO42" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="BP42" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="BQ42" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BR42" s="3" t="s">
         <v>109</v>
@@ -11348,7 +11401,7 @@
         <v>175</v>
       </c>
       <c r="BU42" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.2">
@@ -11356,7 +11409,7 @@
         <v>44260.813511562505</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>74</v>
@@ -11368,7 +11421,7 @@
         <v>2023025</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>77</v>
@@ -11443,7 +11496,7 @@
         <v>87</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF43" s="3" t="s">
         <v>89</v>
@@ -11452,7 +11505,7 @@
         <v>151</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AI43" s="3" t="s">
         <v>129</v>
@@ -11461,7 +11514,7 @@
         <v>93</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>95</v>
@@ -11470,7 +11523,7 @@
         <v>96</v>
       </c>
       <c r="AN43" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO43" s="3" t="s">
         <v>193</v>
@@ -11533,10 +11586,10 @@
         <v>136</v>
       </c>
       <c r="BI43" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ43" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="BK43" s="3" t="s">
         <v>109</v>
@@ -11545,19 +11598,19 @@
         <v>139</v>
       </c>
       <c r="BM43" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="BN43" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="BO43" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP43" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ43" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="BR43" s="3" t="s">
         <v>109</v>
@@ -11569,7 +11622,7 @@
         <v>117</v>
       </c>
       <c r="BU43" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.2">
@@ -11577,7 +11630,7 @@
         <v>44260.818119270829</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>74</v>
@@ -11766,19 +11819,19 @@
         <v>139</v>
       </c>
       <c r="BM44" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN44" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO44" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="BP44" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ44" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="BR44" s="3" t="s">
         <v>109</v>
@@ -11790,7 +11843,7 @@
         <v>175</v>
       </c>
       <c r="BU44" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.2">
@@ -11798,7 +11851,7 @@
         <v>44261.406305856479</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>74</v>
@@ -11894,7 +11947,7 @@
         <v>165</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>451</v>
+        <v>165</v>
       </c>
       <c r="AI45" s="3" t="s">
         <v>129</v>
@@ -11915,7 +11968,7 @@
         <v>169</v>
       </c>
       <c r="AO45" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP45" s="3" t="s">
         <v>99</v>
@@ -11978,7 +12031,7 @@
         <v>107</v>
       </c>
       <c r="BJ45" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="BK45" s="3" t="s">
         <v>109</v>
@@ -11987,19 +12040,19 @@
         <v>110</v>
       </c>
       <c r="BM45" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BN45" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO45" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BP45" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BQ45" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BR45" s="3" t="s">
         <v>109</v>
@@ -12008,10 +12061,10 @@
         <v>116</v>
       </c>
       <c r="BT45" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU45" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:73" x14ac:dyDescent="0.2">
@@ -12019,7 +12072,7 @@
         <v>44260.88511231482</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>74</v>
@@ -12106,7 +12159,7 @@
         <v>87</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF46" s="3" t="s">
         <v>89</v>
@@ -12115,7 +12168,7 @@
         <v>151</v>
       </c>
       <c r="AH46" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AI46" s="3" t="s">
         <v>152</v>
@@ -12133,10 +12186,10 @@
         <v>96</v>
       </c>
       <c r="AN46" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO46" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP46" s="3" t="s">
         <v>99</v>
@@ -12193,13 +12246,13 @@
         <v>135</v>
       </c>
       <c r="BH46" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="BI46" s="3" t="s">
         <v>137</v>
       </c>
       <c r="BJ46" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="BK46" s="3" t="s">
         <v>109</v>
@@ -12211,7 +12264,7 @@
         <v>157</v>
       </c>
       <c r="BN46" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO46" s="3" t="s">
         <v>196</v>
@@ -12220,7 +12273,7 @@
         <v>174</v>
       </c>
       <c r="BQ46" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BR46" s="3" t="s">
         <v>109</v>
@@ -12232,7 +12285,7 @@
         <v>175</v>
       </c>
       <c r="BU46" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.2">
@@ -12240,7 +12293,7 @@
         <v>44260.936375185185</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>74</v>
@@ -12327,7 +12380,7 @@
         <v>87</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF47" s="3" t="s">
         <v>126</v>
@@ -12336,7 +12389,7 @@
         <v>151</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AI47" s="3" t="s">
         <v>92</v>
@@ -12354,10 +12407,10 @@
         <v>96</v>
       </c>
       <c r="AN47" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO47" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP47" s="3" t="s">
         <v>99</v>
@@ -12420,19 +12473,19 @@
         <v>82</v>
       </c>
       <c r="BJ47" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="BK47" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BL47" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BM47" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="BN47" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="BO47" s="3" t="s">
         <v>196</v>
@@ -12441,7 +12494,7 @@
         <v>197</v>
       </c>
       <c r="BQ47" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="BR47" s="3" t="s">
         <v>109</v>
@@ -12450,10 +12503,10 @@
         <v>186</v>
       </c>
       <c r="BT47" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU47" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.2">
@@ -12461,7 +12514,7 @@
         <v>44260.945002476852</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>74</v>
@@ -12503,7 +12556,7 @@
         <v>4</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q48" s="3">
         <v>2</v>
@@ -12548,7 +12601,7 @@
         <v>87</v>
       </c>
       <c r="AE48" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF48" s="3" t="s">
         <v>89</v>
@@ -12557,13 +12610,13 @@
         <v>151</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AI48" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AJ48" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK48" s="3" t="s">
         <v>130</v>
@@ -12575,10 +12628,10 @@
         <v>103</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AP48" s="3" t="s">
         <v>99</v>
@@ -12635,7 +12688,7 @@
         <v>135</v>
       </c>
       <c r="BH48" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="BI48" s="3" t="s">
         <v>107</v>
@@ -12650,13 +12703,13 @@
         <v>80</v>
       </c>
       <c r="BM48" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="BN48" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO48" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP48" s="3" t="s">
         <v>174</v>
@@ -12671,10 +12724,10 @@
         <v>116</v>
       </c>
       <c r="BT48" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU48" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:73" x14ac:dyDescent="0.2">
@@ -12682,7 +12735,7 @@
         <v>44260.947261817128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>74</v>
@@ -12769,7 +12822,7 @@
         <v>87</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF49" s="3" t="s">
         <v>89</v>
@@ -12778,7 +12831,7 @@
         <v>151</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AI49" s="3" t="s">
         <v>152</v>
@@ -12799,7 +12852,7 @@
         <v>169</v>
       </c>
       <c r="AO49" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP49" s="3" t="s">
         <v>100</v>
@@ -12856,7 +12909,7 @@
         <v>135</v>
       </c>
       <c r="BH49" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BI49" s="3" t="s">
         <v>82</v>
@@ -12874,16 +12927,16 @@
         <v>194</v>
       </c>
       <c r="BN49" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="BO49" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BP49" s="3" t="s">
         <v>197</v>
       </c>
       <c r="BQ49" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BR49" s="3" t="s">
         <v>109</v>
@@ -12893,6 +12946,9 @@
       </c>
       <c r="BT49" s="3" t="s">
         <v>175</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:73" x14ac:dyDescent="0.2">
@@ -12900,7 +12956,7 @@
         <v>44260.976459699072</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>74</v>
@@ -13014,7 +13070,7 @@
         <v>103</v>
       </c>
       <c r="AN50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO50" s="3" t="s">
         <v>98</v>
@@ -13071,16 +13127,16 @@
         <v>134</v>
       </c>
       <c r="BG50" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH50" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="BI50" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ50" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="BK50" s="3" t="s">
         <v>109</v>
@@ -13089,19 +13145,19 @@
         <v>80</v>
       </c>
       <c r="BM50" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="BN50" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO50" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="BP50" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BQ50" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BR50" s="3" t="s">
         <v>109</v>
@@ -13110,10 +13166,10 @@
         <v>116</v>
       </c>
       <c r="BT50" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU50" s="3" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:73" x14ac:dyDescent="0.2">
@@ -13121,7 +13177,7 @@
         <v>44261.042403888889</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>74</v>
@@ -13136,7 +13192,7 @@
         <v>76</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>78</v>
@@ -13202,13 +13258,13 @@
         <v>3</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD51" s="3" t="s">
         <v>87</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF51" s="3" t="s">
         <v>89</v>
@@ -13217,7 +13273,7 @@
         <v>151</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AI51" s="3" t="s">
         <v>129</v>
@@ -13232,13 +13288,13 @@
         <v>95</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>169</v>
       </c>
       <c r="AO51" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP51" s="3" t="s">
         <v>100</v>
@@ -13295,34 +13351,34 @@
         <v>135</v>
       </c>
       <c r="BH51" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="BI51" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ51" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BK51" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BL51" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BM51" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN51" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO51" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="BP51" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ51" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BR51" s="3" t="s">
         <v>109</v>
@@ -13331,10 +13387,10 @@
         <v>186</v>
       </c>
       <c r="BT51" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU51" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:73" x14ac:dyDescent="0.2">
@@ -13342,7 +13398,7 @@
         <v>44261.047896064818</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>74</v>
@@ -13429,7 +13485,7 @@
         <v>87</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF52" s="3" t="s">
         <v>126</v>
@@ -13438,7 +13494,7 @@
         <v>151</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AI52" s="3" t="s">
         <v>129</v>
@@ -13522,7 +13578,7 @@
         <v>137</v>
       </c>
       <c r="BJ52" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="BK52" s="3" t="s">
         <v>109</v>
@@ -13531,31 +13587,31 @@
         <v>139</v>
       </c>
       <c r="BM52" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN52" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO52" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="BP52" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BQ52" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BR52" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BS52" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BT52" s="3" t="s">
         <v>175</v>
       </c>
       <c r="BU52" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:73" x14ac:dyDescent="0.2">
@@ -13563,7 +13619,7 @@
         <v>44261.327996099542</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>74</v>
@@ -13599,13 +13655,13 @@
         <v>82</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O53" s="3">
         <v>2</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q53" s="3">
         <v>1</v>
@@ -13659,7 +13715,7 @@
         <v>151</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AI53" s="3" t="s">
         <v>129</v>
@@ -13743,7 +13799,7 @@
         <v>107</v>
       </c>
       <c r="BJ53" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="BK53" s="3" t="s">
         <v>109</v>
@@ -13752,19 +13808,19 @@
         <v>110</v>
       </c>
       <c r="BM53" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="BN53" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO53" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP53" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ53" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BR53" s="3" t="s">
         <v>109</v>
@@ -13773,10 +13829,10 @@
         <v>116</v>
       </c>
       <c r="BT53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU53" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:73" x14ac:dyDescent="0.2">
@@ -13784,7 +13840,7 @@
         <v>44261.332426678244</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>74</v>
@@ -13808,7 +13864,7 @@
         <v>30382</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>80</v>
@@ -13817,7 +13873,7 @@
         <v>121</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>83</v>
@@ -13826,7 +13882,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q54" s="3">
         <v>1</v>
@@ -13880,7 +13936,7 @@
         <v>151</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>499</v>
+        <v>150</v>
       </c>
       <c r="AI54" s="3" t="s">
         <v>129</v>
@@ -13901,7 +13957,7 @@
         <v>169</v>
       </c>
       <c r="AO54" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AP54" s="3" t="s">
         <v>99</v>
@@ -13964,7 +14020,7 @@
         <v>107</v>
       </c>
       <c r="BJ54" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="BK54" s="3" t="s">
         <v>109</v>
@@ -13973,19 +14029,19 @@
         <v>139</v>
       </c>
       <c r="BM54" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BN54" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="BO54" s="3" t="s">
         <v>196</v>
       </c>
       <c r="BP54" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BQ54" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BR54" s="3" t="s">
         <v>109</v>
@@ -13997,7 +14053,7 @@
         <v>117</v>
       </c>
       <c r="BU54" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:73" x14ac:dyDescent="0.2">
@@ -14005,7 +14061,7 @@
         <v>44261.347066666669</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>74</v>
@@ -14101,7 +14157,7 @@
         <v>151</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AI55" s="3" t="s">
         <v>152</v>
@@ -14176,16 +14232,16 @@
         <v>103</v>
       </c>
       <c r="BG55" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH55" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="BI55" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BJ55" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BK55" s="3" t="s">
         <v>109</v>
@@ -14200,25 +14256,25 @@
         <v>158</v>
       </c>
       <c r="BO55" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BP55" s="3" t="s">
         <v>143</v>
       </c>
       <c r="BQ55" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="BR55" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BS55" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BT55" s="3" t="s">
         <v>175</v>
       </c>
       <c r="BU55" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:73" x14ac:dyDescent="0.2">
@@ -14226,7 +14282,7 @@
         <v>44261.355945277777</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>74</v>
@@ -14262,19 +14318,19 @@
         <v>82</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O56" s="3">
         <v>1</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q56" s="3">
         <v>1</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S56" s="3">
         <v>1</v>
@@ -14313,7 +14369,7 @@
         <v>87</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF56" s="3" t="s">
         <v>126</v>
@@ -14322,7 +14378,7 @@
         <v>151</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AI56" s="3" t="s">
         <v>152</v>
@@ -14334,16 +14390,16 @@
         <v>167</v>
       </c>
       <c r="AL56" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM56" s="3" t="s">
         <v>100</v>
       </c>
       <c r="AN56" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AO56" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AP56" s="3" t="s">
         <v>99</v>
@@ -14415,31 +14471,31 @@
         <v>139</v>
       </c>
       <c r="BM56" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="BN56" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO56" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="BP56" s="3" t="s">
         <v>197</v>
       </c>
       <c r="BQ56" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="BR56" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BS56" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BT56" s="3" t="s">
         <v>117</v>
       </c>
       <c r="BU56" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:73" x14ac:dyDescent="0.2">
@@ -14447,7 +14503,7 @@
         <v>44261.357688726857</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>74</v>
@@ -14462,7 +14518,7 @@
         <v>76</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>78</v>
@@ -14534,7 +14590,7 @@
         <v>87</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF57" s="3" t="s">
         <v>126</v>
@@ -14543,7 +14599,7 @@
         <v>151</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AI57" s="3" t="s">
         <v>166</v>
@@ -14618,16 +14674,16 @@
         <v>96</v>
       </c>
       <c r="BG57" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH57" s="3" t="s">
         <v>136</v>
       </c>
       <c r="BI57" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ57" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="BK57" s="3" t="s">
         <v>109</v>
@@ -14648,7 +14704,7 @@
         <v>174</v>
       </c>
       <c r="BQ57" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="BR57" s="3" t="s">
         <v>109</v>
@@ -14657,10 +14713,10 @@
         <v>116</v>
       </c>
       <c r="BT57" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU57" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:73" x14ac:dyDescent="0.2">
@@ -14668,7 +14724,7 @@
         <v>44261.359977152781</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>74</v>
@@ -14698,10 +14754,10 @@
         <v>80</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>149</v>
@@ -14716,7 +14772,7 @@
         <v>2</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S58" s="3">
         <v>1</v>
@@ -14755,7 +14811,7 @@
         <v>87</v>
       </c>
       <c r="AE58" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AF58" s="3" t="s">
         <v>89</v>
@@ -14764,7 +14820,7 @@
         <v>151</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AI58" s="3" t="s">
         <v>152</v>
@@ -14848,7 +14904,7 @@
         <v>137</v>
       </c>
       <c r="BJ58" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="BK58" s="3" t="s">
         <v>87</v>
@@ -14860,16 +14916,16 @@
         <v>157</v>
       </c>
       <c r="BN58" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO58" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="BP58" s="3" t="s">
         <v>160</v>
       </c>
       <c r="BQ58" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="BR58" s="3" t="s">
         <v>109</v>
@@ -14881,7 +14937,7 @@
         <v>117</v>
       </c>
       <c r="BU58" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:73" x14ac:dyDescent="0.2">
@@ -14889,7 +14945,7 @@
         <v>44261.456565694447</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>74</v>
@@ -14976,7 +15032,7 @@
         <v>87</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF59" s="3" t="s">
         <v>89</v>
@@ -14985,10 +15041,10 @@
         <v>191</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AI59" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AJ59" s="3" t="s">
         <v>130</v>
@@ -15003,10 +15059,10 @@
         <v>103</v>
       </c>
       <c r="AN59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO59" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AP59" s="3" t="s">
         <v>99</v>
@@ -15069,7 +15125,7 @@
         <v>107</v>
       </c>
       <c r="BJ59" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="BK59" s="3" t="s">
         <v>87</v>
@@ -15078,16 +15134,16 @@
         <v>139</v>
       </c>
       <c r="BM59" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BN59" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO59" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BP59" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="BQ59" s="3" t="s">
         <v>115</v>
@@ -15100,6 +15156,9 @@
       </c>
       <c r="BT59" s="3" t="s">
         <v>175</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:73" x14ac:dyDescent="0.2">
@@ -15107,7 +15166,7 @@
         <v>44261.408783854167</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>74</v>
@@ -15149,13 +15208,13 @@
         <v>4</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q60" s="3">
         <v>6</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S60" s="3">
         <v>1</v>
@@ -15281,19 +15340,19 @@
         <v>135</v>
       </c>
       <c r="BH60" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="BI60" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ60" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="BK60" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BL60" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM60" s="3" t="s">
         <v>182</v>
@@ -15302,22 +15361,25 @@
         <v>158</v>
       </c>
       <c r="BO60" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="BP60" s="3" t="s">
         <v>114</v>
       </c>
       <c r="BQ60" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BR60" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BS60" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BT60" s="3" t="s">
         <v>175</v>
+      </c>
+      <c r="BU60" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:73" x14ac:dyDescent="0.2">
@@ -15325,7 +15387,7 @@
         <v>44261.442637974542</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>74</v>
@@ -15340,7 +15402,7 @@
         <v>76</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>78</v>
@@ -15361,13 +15423,13 @@
         <v>82</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O61" s="3">
         <v>3</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q61" s="3">
         <v>1</v>
@@ -15421,7 +15483,7 @@
         <v>151</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AI61" s="3" t="s">
         <v>129</v>
@@ -15433,7 +15495,7 @@
         <v>130</v>
       </c>
       <c r="AL61" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM61" s="3" t="s">
         <v>96</v>
@@ -15499,13 +15561,13 @@
         <v>154</v>
       </c>
       <c r="BH61" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BI61" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BJ61" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="BK61" s="3" t="s">
         <v>109</v>
@@ -15514,19 +15576,19 @@
         <v>80</v>
       </c>
       <c r="BM61" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="BN61" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO61" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BP61" s="3" t="s">
         <v>114</v>
       </c>
       <c r="BQ61" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="BR61" s="3" t="s">
         <v>109</v>
@@ -15538,7 +15600,7 @@
         <v>117</v>
       </c>
       <c r="BU61" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:73" x14ac:dyDescent="0.2">
@@ -15546,7 +15608,7 @@
         <v>44261.447496215274</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>74</v>
@@ -15588,7 +15650,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q62" s="3">
         <v>1</v>
@@ -15633,7 +15695,7 @@
         <v>87</v>
       </c>
       <c r="AE62" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF62" s="3" t="s">
         <v>126</v>
@@ -15642,13 +15704,13 @@
         <v>151</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI62" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AJ62" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK62" s="3" t="s">
         <v>130</v>
@@ -15660,7 +15722,7 @@
         <v>96</v>
       </c>
       <c r="AN62" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO62" s="3" t="s">
         <v>98</v>
@@ -15723,43 +15785,43 @@
         <v>106</v>
       </c>
       <c r="BI62" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BJ62" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BK62" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BL62" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BM62" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="BN62" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO62" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP62" s="3" t="s">
         <v>197</v>
       </c>
       <c r="BQ62" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BR62" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BS62" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BT62" s="3" t="s">
         <v>145</v>
       </c>
       <c r="BU62" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="1:73" x14ac:dyDescent="0.2">
@@ -15767,7 +15829,7 @@
         <v>44261.519795995366</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>74</v>
@@ -15809,7 +15871,7 @@
         <v>3</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q63" s="3">
         <v>7</v>
@@ -15878,13 +15940,13 @@
         <v>95</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>178</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AP63" s="3" t="s">
         <v>99</v>
@@ -15947,7 +16009,7 @@
         <v>82</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="BK63" s="3" t="s">
         <v>87</v>
@@ -15962,13 +16024,13 @@
         <v>158</v>
       </c>
       <c r="BO63" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BP63" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ63" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="BR63" s="3" t="s">
         <v>109</v>
@@ -15977,10 +16039,10 @@
         <v>144</v>
       </c>
       <c r="BT63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU63" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:73" x14ac:dyDescent="0.2">
@@ -15988,7 +16050,7 @@
         <v>44261.688039942128</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>74</v>
@@ -16030,7 +16092,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q64" s="3">
         <v>2</v>
@@ -16069,7 +16131,7 @@
         <v>2</v>
       </c>
       <c r="AC64" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD64" s="3" t="s">
         <v>87</v>
@@ -16084,28 +16146,28 @@
         <v>151</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AI64" s="3" t="s">
         <v>152</v>
       </c>
       <c r="AJ64" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK64" s="3" t="s">
         <v>130</v>
       </c>
       <c r="AL64" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM64" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AN64" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AO64" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AP64" s="3" t="s">
         <v>99</v>
@@ -16159,16 +16221,16 @@
         <v>134</v>
       </c>
       <c r="BG64" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH64" s="3" t="s">
         <v>136</v>
       </c>
       <c r="BI64" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BJ64" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="BK64" s="3" t="s">
         <v>109</v>
@@ -16177,19 +16239,19 @@
         <v>110</v>
       </c>
       <c r="BM64" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="BN64" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="BO64" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="BP64" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BQ64" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="BR64" s="3" t="s">
         <v>109</v>
@@ -16201,7 +16263,7 @@
         <v>117</v>
       </c>
       <c r="BU64" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:73" x14ac:dyDescent="0.2">
@@ -16209,7 +16271,7 @@
         <v>44261.819814999995</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>74</v>
@@ -16224,7 +16286,7 @@
         <v>76</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>78</v>
@@ -16296,7 +16358,7 @@
         <v>87</v>
       </c>
       <c r="AE65" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF65" s="3" t="s">
         <v>89</v>
@@ -16305,7 +16367,7 @@
         <v>151</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="AI65" s="3" t="s">
         <v>129</v>
@@ -16323,7 +16385,7 @@
         <v>96</v>
       </c>
       <c r="AN65" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AO65" s="3" t="s">
         <v>98</v>
@@ -16389,7 +16451,7 @@
         <v>137</v>
       </c>
       <c r="BJ65" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="BK65" s="3" t="s">
         <v>109</v>
@@ -16404,13 +16466,13 @@
         <v>195</v>
       </c>
       <c r="BO65" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BP65" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ65" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="BR65" s="3" t="s">
         <v>109</v>
@@ -16419,10 +16481,10 @@
         <v>144</v>
       </c>
       <c r="BT65" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="BU65" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:73" x14ac:dyDescent="0.2">
@@ -16430,7 +16492,7 @@
         <v>44261.8660852662</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>74</v>
@@ -16478,7 +16540,7 @@
         <v>4</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S66" s="3">
         <v>1</v>
@@ -16517,7 +16579,7 @@
         <v>87</v>
       </c>
       <c r="AE66" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF66" s="3" t="s">
         <v>126</v>
@@ -16532,7 +16594,7 @@
         <v>129</v>
       </c>
       <c r="AJ66" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK66" s="3" t="s">
         <v>94</v>
@@ -16619,19 +16681,19 @@
         <v>139</v>
       </c>
       <c r="BM66" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BN66" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO66" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BP66" s="3" t="s">
         <v>174</v>
       </c>
       <c r="BQ66" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="BR66" s="3" t="s">
         <v>109</v>
@@ -16640,7 +16702,10 @@
         <v>116</v>
       </c>
       <c r="BT66" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="67" spans="1:73" x14ac:dyDescent="0.2">
@@ -16648,7 +16713,7 @@
         <v>44261.959790486115</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>74</v>
@@ -16744,7 +16809,7 @@
         <v>151</v>
       </c>
       <c r="AH67" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AI67" s="3" t="s">
         <v>129</v>
@@ -16762,10 +16827,10 @@
         <v>100</v>
       </c>
       <c r="AN67" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AO67" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AP67" s="3" t="s">
         <v>100</v>
@@ -16819,16 +16884,16 @@
         <v>103</v>
       </c>
       <c r="BG67" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BH67" s="3" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="BI67" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ67" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="BK67" s="3" t="s">
         <v>109</v>
@@ -16837,10 +16902,10 @@
         <v>139</v>
       </c>
       <c r="BM67" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="BN67" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="BO67" s="3" t="s">
         <v>196</v>
@@ -16849,19 +16914,19 @@
         <v>143</v>
       </c>
       <c r="BQ67" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="BR67" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BS67" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BT67" s="3" t="s">
         <v>175</v>
       </c>
       <c r="BU67" s="8" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -16872,20 +16937,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17015,19 +17080,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42055-2B02-4017-B2F7-5D1E3BDC4755}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7782f7c-3682-40ab-87b3-699aa360fab5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42055-2B02-4017-B2F7-5D1E3BDC4755}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c7782f7c-3682-40ab-87b3-699aa360fab5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
+++ b/excel-to-json/Dados coletados - Questionario Socioeconomico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqui\Desktop\ProjetosJS\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5BE5C-C28F-49CB-B094-0C0024FCDBDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52896D9D-C64E-47D1-8D5F-82FB8A526252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13425" yWindow="120" windowWidth="22140" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,9 +1662,6 @@
     <t>gusta.gh85@gmail.com</t>
   </si>
   <si>
-    <t>it2b , prodesp</t>
-  </si>
-  <si>
     <t>Cinema, Filmes na internet, TV</t>
   </si>
   <si>
@@ -1831,6 +1828,9 @@
   </si>
   <si>
     <t xml:space="preserve">Não informou </t>
+  </si>
+  <si>
+    <t>it2b e prodesp</t>
   </si>
 </sst>
 </file>
@@ -2112,9 +2112,9 @@
   </sheetPr>
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BT69" sqref="BT69"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2561,7 +2561,7 @@
         <v>117</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.2">
@@ -3003,7 +3003,7 @@
         <v>117</v>
       </c>
       <c r="BU4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>175</v>
       </c>
       <c r="BU8" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.2">
@@ -4108,7 +4108,7 @@
         <v>117</v>
       </c>
       <c r="BU9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.2">
@@ -5213,7 +5213,7 @@
         <v>117</v>
       </c>
       <c r="BU14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>117</v>
       </c>
       <c r="BU16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:73" x14ac:dyDescent="0.2">
@@ -7202,7 +7202,7 @@
         <v>117</v>
       </c>
       <c r="BU23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>90</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AI25" s="3" t="s">
         <v>129</v>
@@ -7644,7 +7644,7 @@
         <v>268</v>
       </c>
       <c r="BU25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.2">
@@ -8086,7 +8086,7 @@
         <v>145</v>
       </c>
       <c r="BU27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.2">
@@ -8528,7 +8528,7 @@
         <v>268</v>
       </c>
       <c r="BU29" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:73" x14ac:dyDescent="0.2">
@@ -8749,7 +8749,7 @@
         <v>145</v>
       </c>
       <c r="BU30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:73" x14ac:dyDescent="0.2">
@@ -9633,7 +9633,7 @@
         <v>117</v>
       </c>
       <c r="BU34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.2">
@@ -9854,7 +9854,7 @@
         <v>394</v>
       </c>
       <c r="BU35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.2">
@@ -10075,7 +10075,7 @@
         <v>175</v>
       </c>
       <c r="BU36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.2">
@@ -12948,7 +12948,7 @@
         <v>175</v>
       </c>
       <c r="BU49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:73" x14ac:dyDescent="0.2">
@@ -13169,7 +13169,7 @@
         <v>313</v>
       </c>
       <c r="BU50" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:73" x14ac:dyDescent="0.2">
@@ -14378,7 +14378,7 @@
         <v>151</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="AI56" s="3" t="s">
         <v>152</v>
@@ -14471,19 +14471,19 @@
         <v>139</v>
       </c>
       <c r="BM56" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BN56" s="3" t="s">
         <v>158</v>
       </c>
       <c r="BO56" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BP56" s="3" t="s">
         <v>197</v>
       </c>
       <c r="BQ56" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BR56" s="3" t="s">
         <v>109</v>
@@ -14495,7 +14495,7 @@
         <v>117</v>
       </c>
       <c r="BU56" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:73" x14ac:dyDescent="0.2">
@@ -14503,7 +14503,7 @@
         <v>44261.357688726857</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>74</v>
@@ -14599,7 +14599,7 @@
         <v>151</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI57" s="3" t="s">
         <v>166</v>
@@ -14716,7 +14716,7 @@
         <v>268</v>
       </c>
       <c r="BU57" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:73" x14ac:dyDescent="0.2">
@@ -14724,7 +14724,7 @@
         <v>44261.359977152781</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>74</v>
@@ -14754,7 +14754,7 @@
         <v>80</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>493</v>
@@ -14820,7 +14820,7 @@
         <v>151</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AI58" s="3" t="s">
         <v>152</v>
@@ -14904,7 +14904,7 @@
         <v>137</v>
       </c>
       <c r="BJ58" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BK58" s="3" t="s">
         <v>87</v>
@@ -14919,13 +14919,13 @@
         <v>253</v>
       </c>
       <c r="BO58" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BP58" s="3" t="s">
         <v>160</v>
       </c>
       <c r="BQ58" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BR58" s="3" t="s">
         <v>109</v>
@@ -14937,7 +14937,7 @@
         <v>117</v>
       </c>
       <c r="BU58" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:73" x14ac:dyDescent="0.2">
@@ -14945,7 +14945,7 @@
         <v>44261.456565694447</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>74</v>
@@ -15041,7 +15041,7 @@
         <v>191</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI59" s="3" t="s">
         <v>216</v>
@@ -15125,7 +15125,7 @@
         <v>107</v>
       </c>
       <c r="BJ59" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BK59" s="3" t="s">
         <v>87</v>
@@ -15143,7 +15143,7 @@
         <v>300</v>
       </c>
       <c r="BP59" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BQ59" s="3" t="s">
         <v>115</v>
@@ -15158,7 +15158,7 @@
         <v>175</v>
       </c>
       <c r="BU59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:73" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
         <v>44261.408783854167</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>74</v>
@@ -15340,13 +15340,13 @@
         <v>135</v>
       </c>
       <c r="BH60" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BI60" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ60" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BK60" s="3" t="s">
         <v>87</v>
@@ -15361,7 +15361,7 @@
         <v>158</v>
       </c>
       <c r="BO60" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BP60" s="3" t="s">
         <v>114</v>
@@ -15379,7 +15379,7 @@
         <v>175</v>
       </c>
       <c r="BU60" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:73" x14ac:dyDescent="0.2">
@@ -15387,7 +15387,7 @@
         <v>44261.442637974542</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>74</v>
@@ -15402,7 +15402,7 @@
         <v>76</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>78</v>
@@ -15483,7 +15483,7 @@
         <v>151</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AI61" s="3" t="s">
         <v>129</v>
@@ -15567,7 +15567,7 @@
         <v>219</v>
       </c>
       <c r="BJ61" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BK61" s="3" t="s">
         <v>109</v>
@@ -15576,7 +15576,7 @@
         <v>80</v>
       </c>
       <c r="BM61" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BN61" s="3" t="s">
         <v>158</v>
@@ -15588,7 +15588,7 @@
         <v>114</v>
       </c>
       <c r="BQ61" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BR61" s="3" t="s">
         <v>109</v>
@@ -15600,7 +15600,7 @@
         <v>117</v>
       </c>
       <c r="BU61" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:73" x14ac:dyDescent="0.2">
@@ -15608,7 +15608,7 @@
         <v>44261.447496215274</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>74</v>
@@ -15797,7 +15797,7 @@
         <v>230</v>
       </c>
       <c r="BM62" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BN62" s="3" t="s">
         <v>158</v>
@@ -15821,7 +15821,7 @@
         <v>145</v>
       </c>
       <c r="BU62" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:73" x14ac:dyDescent="0.2">
@@ -15829,7 +15829,7 @@
         <v>44261.519795995366</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>74</v>
@@ -15946,7 +15946,7 @@
         <v>178</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP63" s="3" t="s">
         <v>99</v>
@@ -16009,7 +16009,7 @@
         <v>82</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BK63" s="3" t="s">
         <v>87</v>
@@ -16030,7 +16030,7 @@
         <v>174</v>
       </c>
       <c r="BQ63" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BR63" s="3" t="s">
         <v>109</v>
@@ -16042,7 +16042,7 @@
         <v>268</v>
       </c>
       <c r="BU63" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:73" x14ac:dyDescent="0.2">
@@ -16050,7 +16050,7 @@
         <v>44261.688039942128</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>74</v>
@@ -16239,19 +16239,19 @@
         <v>110</v>
       </c>
       <c r="BM64" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="BN64" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="BN64" s="3" t="s">
+      <c r="BO64" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="BO64" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="BP64" s="3" t="s">
         <v>222</v>
       </c>
       <c r="BQ64" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="BR64" s="3" t="s">
         <v>109</v>
@@ -16263,7 +16263,7 @@
         <v>117</v>
       </c>
       <c r="BU64" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:73" x14ac:dyDescent="0.2">
@@ -16271,7 +16271,7 @@
         <v>44261.819814999995</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>74</v>
@@ -16286,7 +16286,7 @@
         <v>76</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>78</v>
@@ -16367,7 +16367,7 @@
         <v>151</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AI65" s="3" t="s">
         <v>129</v>
@@ -16472,7 +16472,7 @@
         <v>174</v>
       </c>
       <c r="BQ65" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BR65" s="3" t="s">
         <v>109</v>
@@ -16484,7 +16484,7 @@
         <v>394</v>
       </c>
       <c r="BU65" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:73" x14ac:dyDescent="0.2">
@@ -16492,7 +16492,7 @@
         <v>44261.8660852662</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>74</v>
@@ -16705,7 +16705,7 @@
         <v>313</v>
       </c>
       <c r="BU66" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="1:73" x14ac:dyDescent="0.2">
@@ -16713,7 +16713,7 @@
         <v>44261.959790486115</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>74</v>
@@ -16809,7 +16809,7 @@
         <v>151</v>
       </c>
       <c r="AH67" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AI67" s="3" t="s">
         <v>129</v>
@@ -16887,13 +16887,13 @@
         <v>218</v>
       </c>
       <c r="BH67" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BI67" s="3" t="s">
         <v>107</v>
       </c>
       <c r="BJ67" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BK67" s="3" t="s">
         <v>109</v>
@@ -16902,10 +16902,10 @@
         <v>139</v>
       </c>
       <c r="BM67" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN67" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="BN67" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="BO67" s="3" t="s">
         <v>196</v>
@@ -16914,7 +16914,7 @@
         <v>143</v>
       </c>
       <c r="BQ67" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BR67" s="3" t="s">
         <v>109</v>
@@ -16926,7 +16926,7 @@
         <v>175</v>
       </c>
       <c r="BU67" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -16937,20 +16937,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17080,19 +17080,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42055-2B02-4017-B2F7-5D1E3BDC4755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c7782f7c-3682-40ab-87b3-699aa360fab5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
